--- a/school stata code prepare/coef of VAM.xlsx
+++ b/school stata code prepare/coef of VAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/t-itwalk_microsoft_com/Documents/University/thesis/Writing/Results for the article/School/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{8B62CB39-DCE9-4DA5-9CE5-CCB6BFABC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20482E3-7C05-499F-AA76-8F6C2D63F0D0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{8B62CB39-DCE9-4DA5-9CE5-CCB6BFABC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078BD456-A4C7-402D-93EE-D9EA06E5279E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1161E3A7-6345-476F-96B5-B350E6B1A26A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>coefficient of VAM</t>
   </si>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>-3.900507   52.44305</t>
+  </si>
+  <si>
+    <t>Calculate VAM by the average school test score</t>
+  </si>
+  <si>
+    <t>Add also only a third-order
+polynomial in the prior year’s reading and math
+scores</t>
   </si>
 </sst>
 </file>
@@ -170,10 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +502,13 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="23.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -562,8 +576,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -571,8 +585,8 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>29</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -580,8 +594,8 @@
       <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="L4" t="s">
+        <v>29</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -591,8 +605,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -600,8 +614,8 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -609,8 +623,8 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="L5" t="s">
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
@@ -620,8 +634,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -629,8 +643,8 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -638,8 +652,8 @@
       <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="L6" t="s">
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>7</v>
@@ -648,9 +662,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>2</v>
+    <row r="7" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -658,8 +672,8 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="G7">
-        <v>2</v>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -667,8 +681,8 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="L7">
-        <v>2</v>
+      <c r="L7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -677,9 +691,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>2</v>
+    <row r="8" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -687,8 +701,8 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -696,8 +710,8 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="L8">
-        <v>2</v>
+      <c r="L8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
@@ -706,9 +720,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2</v>
+    <row r="9" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -716,8 +730,8 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -725,8 +739,8 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="L9">
-        <v>2</v>
+      <c r="L9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M9" t="s">
         <v>7</v>

--- a/school stata code prepare/coef of VAM.xlsx
+++ b/school stata code prepare/coef of VAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/t-itwalk_microsoft_com/Documents/University/thesis/Writing/Results for the article/School/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{8B62CB39-DCE9-4DA5-9CE5-CCB6BFABC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078BD456-A4C7-402D-93EE-D9EA06E5279E}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{8B62CB39-DCE9-4DA5-9CE5-CCB6BFABC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DCF721-9DE8-4B00-83C5-049C6B40D778}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1161E3A7-6345-476F-96B5-B350E6B1A26A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>coefficient of VAM</t>
   </si>
@@ -54,12 +54,6 @@
     <t>years back</t>
   </si>
   <si>
-    <t>2yr</t>
-  </si>
-  <si>
-    <t>all (4 years)</t>
-  </si>
-  <si>
     <t>iv</t>
   </si>
   <si>
@@ -123,12 +117,13 @@
     <t>-3.900507   52.44305</t>
   </si>
   <si>
-    <t>Calculate VAM by the average school test score</t>
-  </si>
-  <si>
-    <t>Add also only a third-order
-polynomial in the prior year’s reading and math
-scores</t>
+    <t>one prior year of data (2001–2002)</t>
+  </si>
+  <si>
+    <t>two prior years of data (2000 to 2002)</t>
+  </si>
+  <si>
+    <t>all five years that are available in the CMS panel (1997 to 2002)</t>
   </si>
 </sst>
 </file>
@@ -178,13 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5444C8A3-5376-447A-92B5-05DBCB603906}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="12" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -519,22 +511,22 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -576,177 +568,182 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
